--- a/structure/db/database-dictionary.xlsx
+++ b/structure/db/database-dictionary.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="113">
   <si>
     <t>Table/Collection Name</t>
   </si>
@@ -117,7 +117,7 @@
     <t>mongodb</t>
   </si>
   <si>
-    <t>is_group, from_id, to_id, content， is_cancel</t>
+    <t>is_group, from_id, to_id, content， is_cancel, chat_session_id</t>
   </si>
   <si>
     <t>/</t>
@@ -126,13 +126,10 @@
     <t>from_id and to_id is user_id in User table stored in mysql.</t>
   </si>
   <si>
-    <t>UserRecord</t>
-  </si>
-  <si>
-    <t>user_id(unique index), chat_record_ids</t>
-  </si>
-  <si>
-    <t>The chat_record_ids from ChatRecord table stored in mongodb</t>
+    <t>ChatSession</t>
+  </si>
+  <si>
+    <t>users{Set&lt;(id+name)&gt;}, last_message, last_time, is_read</t>
   </si>
   <si>
     <t>Article</t>
@@ -387,8 +384,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -409,36 +406,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -453,13 +421,79 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -491,43 +525,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -545,10 +542,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -569,37 +566,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -611,145 +746,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -817,24 +814,35 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -850,26 +858,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -898,17 +886,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -920,10 +917,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -932,19 +929,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -953,112 +950,112 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1461,8 +1458,8 @@
   <sheetPr/>
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1657,53 +1654,51 @@
       <c r="E10" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F10" s="9" t="s">
-        <v>31</v>
-      </c>
+      <c r="F10" s="9"/>
     </row>
     <row r="11" ht="69" customHeight="1" spans="1:6">
       <c r="A11" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>25</v>
       </c>
       <c r="C11" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="8" t="s">
         <v>33</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>34</v>
       </c>
       <c r="E11" s="8" t="s">
         <v>27</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" ht="78" customHeight="1" spans="1:6">
       <c r="A12" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>25</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E12" s="8" t="s">
         <v>27</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" ht="53" customHeight="1" spans="1:6">
       <c r="A13" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>25</v>
@@ -1712,18 +1707,18 @@
         <v>8</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>27</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" ht="48" customHeight="1" spans="1:6">
       <c r="A14" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>25</v>
@@ -1732,18 +1727,18 @@
         <v>8</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E14" s="8" t="s">
         <v>27</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" ht="45" customHeight="1" spans="1:6">
       <c r="A15" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>25</v>
@@ -1752,7 +1747,7 @@
         <v>8</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E15" s="8" t="s">
         <v>27</v>
@@ -1761,7 +1756,7 @@
     </row>
     <row r="16" ht="47" customHeight="1" spans="1:6">
       <c r="A16" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>25</v>
@@ -1770,7 +1765,7 @@
         <v>8</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E16" s="8" t="s">
         <v>27</v>
@@ -1779,27 +1774,27 @@
     </row>
     <row r="17" ht="45" customHeight="1" spans="1:6">
       <c r="A17" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="C17" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C17" s="8" t="s">
-        <v>51</v>
-      </c>
       <c r="D17" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E17" s="8" t="s">
         <v>27</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" ht="39" customHeight="1" spans="1:6">
       <c r="A18" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>7</v>
@@ -1808,14 +1803,14 @@
         <v>8</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
     </row>
     <row r="19" ht="36" customHeight="1" spans="1:6">
       <c r="A19" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
@@ -1867,13 +1862,13 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>58</v>
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
@@ -1881,13 +1876,13 @@
     </row>
     <row r="2" ht="33" customHeight="1" spans="1:6">
       <c r="A2" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="4" t="s">
         <v>60</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>61</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
@@ -1895,13 +1890,13 @@
     </row>
     <row r="3" ht="31" customHeight="1" spans="1:6">
       <c r="A3" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="5" t="s">
         <v>63</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>64</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
@@ -1909,13 +1904,13 @@
     </row>
     <row r="4" ht="31" customHeight="1" spans="1:6">
       <c r="A4" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>65</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>66</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
@@ -1923,13 +1918,13 @@
     </row>
     <row r="5" ht="38" customHeight="1" spans="1:6">
       <c r="A5" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>67</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>68</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
@@ -1937,13 +1932,13 @@
     </row>
     <row r="6" ht="34" customHeight="1" spans="1:6">
       <c r="A6" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>69</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>70</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
@@ -1951,13 +1946,13 @@
     </row>
     <row r="7" ht="37" customHeight="1" spans="1:6">
       <c r="A7" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="C7" s="5" t="s">
         <v>72</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>73</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
@@ -1965,13 +1960,13 @@
     </row>
     <row r="8" ht="39" customHeight="1" spans="1:6">
       <c r="A8" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>74</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>75</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
@@ -1979,13 +1974,13 @@
     </row>
     <row r="9" ht="36" customHeight="1" spans="1:6">
       <c r="A9" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>76</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>77</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
@@ -1993,13 +1988,13 @@
     </row>
     <row r="10" ht="37" customHeight="1" spans="1:6">
       <c r="A10" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>78</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>79</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
@@ -2007,13 +2002,13 @@
     </row>
     <row r="11" ht="36" customHeight="1" spans="1:6">
       <c r="A11" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>80</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>81</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -2021,13 +2016,13 @@
     </row>
     <row r="12" ht="31" customHeight="1" spans="1:6">
       <c r="A12" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="C12" s="5" t="s">
         <v>83</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>84</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
@@ -2035,13 +2030,13 @@
     </row>
     <row r="13" ht="30" customHeight="1" spans="1:6">
       <c r="A13" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>83</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>84</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
@@ -2049,13 +2044,13 @@
     </row>
     <row r="14" ht="27" customHeight="1" spans="1:6">
       <c r="A14" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>86</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>87</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
@@ -2063,13 +2058,13 @@
     </row>
     <row r="15" ht="30" customHeight="1" spans="1:6">
       <c r="A15" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>88</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>89</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
@@ -2077,123 +2072,123 @@
     </row>
     <row r="16" ht="37" customHeight="1" spans="1:3">
       <c r="A16" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C16" s="5" t="s">
         <v>90</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="17" ht="33" customHeight="1" spans="1:3">
       <c r="A17" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>92</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="18" ht="32" customHeight="1" spans="1:3">
       <c r="A18" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="C18" s="4" t="s">
         <v>95</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="19" ht="33" customHeight="1" spans="1:3">
       <c r="A19" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>97</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="20" ht="31" customHeight="1" spans="1:3">
       <c r="A20" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>99</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="21" ht="34" customHeight="1" spans="1:3">
       <c r="A21" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>101</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="22" ht="31" customHeight="1" spans="1:3">
       <c r="A22" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>103</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="23" ht="27" customHeight="1" spans="1:3">
       <c r="A23" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C23" s="4" t="s">
         <v>105</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="24" ht="32" customHeight="1" spans="1:3">
       <c r="A24" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="C24" s="4" t="s">
         <v>108</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="25" ht="26" customHeight="1" spans="1:3">
       <c r="A25" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>110</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="26" ht="31" customHeight="1" spans="1:3">
       <c r="A26" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>112</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>113</v>
       </c>
     </row>
   </sheetData>
